--- a/Templates/Matriz das Comunicacoes.xlsx
+++ b/Templates/Matriz das Comunicacoes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Escritorio de Projetos\Modelos\02-Planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judah/gerenciaDeProjetos/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE4F11-A30A-DC47-B6E0-A68B88218B1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="11340" windowHeight="8715"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15460" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="7" r:id="rId1"/>
@@ -24,13 +25,13 @@
     <definedName name="When">Param!$I$5:$I$12</definedName>
     <definedName name="Where">Param!$J$5:$J$10</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="autoNoTable"/>
+  <calcPr calcId="179021" calcMode="autoNoTable"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="178">
   <si>
     <t>Comentários</t>
   </si>
@@ -584,12 +585,15 @@
   <si>
     <t>Assinatura</t>
   </si>
+  <si>
+    <t>Matriz das Comunicações usada no projeto Academia do Centro Olímpico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1577,13 +1581,65 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="1" applyBorder="1"/>
@@ -1591,128 +1647,76 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="45" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="45" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Accent1" xfId="1" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 - 20%" xfId="2"/>
-    <cellStyle name="Accent1 - 40%" xfId="3"/>
-    <cellStyle name="Accent1 - 60%" xfId="4"/>
+    <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 - 20%" xfId="6"/>
-    <cellStyle name="Accent2 - 40%" xfId="7"/>
-    <cellStyle name="Accent2 - 60%" xfId="8"/>
+    <cellStyle name="Accent2 - 20%" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Accent3" xfId="9" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 - 20%" xfId="10"/>
-    <cellStyle name="Accent3 - 40%" xfId="11"/>
-    <cellStyle name="Accent3 - 60%" xfId="12"/>
+    <cellStyle name="Accent3 - 20%" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Accent4" xfId="13" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 - 20%" xfId="14"/>
-    <cellStyle name="Accent4 - 40%" xfId="15"/>
-    <cellStyle name="Accent4 - 60%" xfId="16"/>
+    <cellStyle name="Accent4 - 20%" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Accent5" xfId="17" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 - 20%" xfId="18"/>
-    <cellStyle name="Accent5 - 40%" xfId="19"/>
-    <cellStyle name="Accent5 - 60%" xfId="20"/>
+    <cellStyle name="Accent5 - 20%" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Accent6" xfId="21" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 - 20%" xfId="22"/>
-    <cellStyle name="Accent6 - 40%" xfId="23"/>
-    <cellStyle name="Accent6 - 60%" xfId="24"/>
+    <cellStyle name="Accent6 - 20%" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Emphasis 1" xfId="28"/>
-    <cellStyle name="Emphasis 2" xfId="29"/>
-    <cellStyle name="Emphasis 3" xfId="30"/>
+    <cellStyle name="Emphasis 1" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Emphasis 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Emphasis 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Good" xfId="31" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="32" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="33" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="35" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="46"/>
+    <cellStyle name="Hyperlink 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Input" xfId="36" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Sheet Title" xfId="41"/>
+    <cellStyle name="Sheet Title" xfId="41" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1743,6 +1747,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Imagem 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1874,6 +1883,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1909,6 +1935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2081,34 +2124,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="23" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="23" customWidth="1"/>
+    <col min="4" max="9" width="14.796875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="33.3984375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="2.59765625" style="22" customWidth="1"/>
     <col min="12" max="12" width="9" style="22" hidden="1" customWidth="1"/>
     <col min="13" max="16" width="0" style="22" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" style="22" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="2.59765625" style="22" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="9" style="22" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="0" style="22" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="49"/>
       <c r="C1" s="48"/>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="46" t="s">
         <v>113</v>
@@ -2124,7 +2168,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="42"/>
       <c r="C3" s="41"/>
@@ -2136,7 +2180,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="32"/>
       <c r="C4" s="28">
@@ -2155,7 +2199,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="32"/>
       <c r="C5" s="28">
@@ -2174,7 +2218,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="29" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="32"/>
       <c r="C6" s="28">
@@ -2193,7 +2237,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="38"/>
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
@@ -2205,7 +2249,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="38"/>
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
@@ -2216,7 +2260,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="19">
       <c r="A9" s="22"/>
       <c r="B9" s="26"/>
       <c r="C9" s="25"/>
@@ -2228,21 +2272,21 @@
       <c r="I9" s="24"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="62" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1"/>
+    <row r="11" spans="1:11" ht="23">
+      <c r="B11" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" ht="16">
       <c r="B12" s="56" t="s">
         <v>170</v>
       </c>
@@ -2252,52 +2296,52 @@
       <c r="D12" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="58"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="D14" s="58"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="1:11" ht="16"/>
+    <row r="16" spans="1:11" ht="23">
+      <c r="B16" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+    </row>
+    <row r="17" spans="2:10" ht="16">
       <c r="B17" s="56" t="s">
         <v>89</v>
       </c>
@@ -2307,56 +2351,56 @@
       <c r="D17" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="2:10" ht="16">
       <c r="B18" s="57">
         <v>1</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="58"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+    </row>
+    <row r="19" spans="2:10" ht="16">
       <c r="B19" s="57">
         <v>2</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+    </row>
+    <row r="20" spans="2:10" ht="16"/>
+    <row r="21" spans="2:10" ht="23">
+      <c r="B21" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="2:10" ht="16">
       <c r="B22" s="59" t="s">
         <v>89</v>
       </c>
@@ -2366,16 +2410,16 @@
       <c r="D22" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="2:10" ht="16">
       <c r="B23" s="58">
         <v>1</v>
       </c>
@@ -2383,16 +2427,16 @@
         <v>94</v>
       </c>
       <c r="D23" s="58"/>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="58" t="s">
         <v>118</v>
       </c>
@@ -2400,16 +2444,16 @@
         <v>94</v>
       </c>
       <c r="D24" s="58"/>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="58" t="s">
         <v>120</v>
       </c>
@@ -2417,16 +2461,16 @@
         <v>94</v>
       </c>
       <c r="D25" s="58"/>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-    </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="58" t="s">
         <v>123</v>
       </c>
@@ -2434,16 +2478,16 @@
         <v>94</v>
       </c>
       <c r="D26" s="58"/>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-    </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="58">
         <v>2</v>
       </c>
@@ -2451,16 +2495,16 @@
         <v>94</v>
       </c>
       <c r="D27" s="58"/>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-    </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1">
       <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
@@ -2468,16 +2512,16 @@
         <v>86</v>
       </c>
       <c r="D28" s="58"/>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1">
       <c r="B29" s="58" t="s">
         <v>114</v>
       </c>
@@ -2485,16 +2529,16 @@
         <v>94</v>
       </c>
       <c r="D29" s="58"/>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1">
       <c r="B30" s="58" t="s">
         <v>116</v>
       </c>
@@ -2502,230 +2546,256 @@
         <v>94</v>
       </c>
       <c r="D30" s="58"/>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-    </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+    </row>
+    <row r="31" spans="2:10" ht="15" customHeight="1">
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
       <c r="D31" s="60"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-    </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="75" t="s">
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1">
+      <c r="B32" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-    </row>
-    <row r="33" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="78" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
+    </row>
+    <row r="33" spans="2:10" ht="74.25" customHeight="1">
+      <c r="B33" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="80"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="75" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1">
+      <c r="B35" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-    </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="80"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1">
+      <c r="B36" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="84"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="85" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1">
+      <c r="B37" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-    </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1">
+      <c r="B38" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
-    </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="91" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="64"/>
+    </row>
+    <row r="39" spans="2:10" ht="15" customHeight="1">
+      <c r="B39" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1">
+      <c r="B40" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="91" t="s">
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" customHeight="1">
+      <c r="B41" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
-    </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="85" t="s">
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="64"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1">
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1">
+      <c r="B43" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
-    </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="91" t="s">
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1">
+      <c r="B44" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
-    </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="64"/>
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1">
+      <c r="B45" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="93"/>
-    </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="91" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="64"/>
+    </row>
+    <row r="46" spans="2:10" ht="15" customHeight="1">
+      <c r="B46" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="93"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="94"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="96"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="64"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1">
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
     <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B47:J47"/>
@@ -2734,107 +2804,85 @@
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B39:J39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" location="Informacoes!A1" display="Informações"/>
-    <hyperlink ref="D6" location="Param!A1" display="Paramêtros"/>
-    <hyperlink ref="D4" location="Capa!A1" display="Instruções"/>
-    <hyperlink ref="C23" location="Informacoes!A1" display="Informacoes"/>
-    <hyperlink ref="C27" location="Informacoes!A1" display="Informacoes"/>
-    <hyperlink ref="C28" location="Param!A1" display="Parametros"/>
-    <hyperlink ref="C24:C26" location="Informacoes!A1" display="Informacoes"/>
-    <hyperlink ref="C29" location="Informacoes!A1" display="Informacoes"/>
-    <hyperlink ref="C30" location="Informacoes!A1" display="Informacoes"/>
-    <hyperlink ref="B36" r:id="rId1" display="http://escritoriodeprojetos.com.br/planejar-o-gerenciamento-das-comunicacoes.aspx"/>
-    <hyperlink ref="B37" r:id="rId2" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx"/>
-    <hyperlink ref="B39" r:id="rId3" tooltip="Plano de gerenciamento das comunicacoesvExemplo.docx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/122-plano-de-gerenciamento-das-comunicacoes-vexemplo"/>
-    <hyperlink ref="B40" r:id="rId4" tooltip="Matriz das Comunicacoes versão Desenvolvimento de Sistemas.xlsx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/677-matriz-das-comunicacoes-vsistemas"/>
-    <hyperlink ref="B41" r:id="rId5" tooltip="Registro das partes interessadas vExemplo-Plano de Comunicacao.xlsx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/123-registro-das-partes-interessadas-vexemplo-plano-de-comunicacao"/>
-    <hyperlink ref="B43" r:id="rId6" display="http://escritoriodeprojetos.com.br/templates-de-gerenciamento-de-projetos.aspx"/>
-    <hyperlink ref="B44" r:id="rId7" tooltip="Plano de gerenciamento das comunicacoes.docx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/82-plano-de-gerenciamento-das-comunicacoes"/>
-    <hyperlink ref="B45" r:id="rId8" tooltip="Matriz das Comunicacoes versao 5W2H.xlsx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/80-matriz-das-comunicacoes"/>
-    <hyperlink ref="B46" r:id="rId9" tooltip="Registro das partes interessadas versao Plano de Comunicacao.xlsx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/83-registro-das-partes-interessadas-v4-variaveis"/>
+    <hyperlink ref="D5" location="Informacoes!A1" display="Informações" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" location="Param!A1" display="Paramêtros" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" location="Capa!A1" display="Instruções" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C23" location="Informacoes!A1" display="Informacoes" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C27" location="Informacoes!A1" display="Informacoes" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C28" location="Param!A1" display="Parametros" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C24:C26" location="Informacoes!A1" display="Informacoes" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C29" location="Informacoes!A1" display="Informacoes" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C30" location="Informacoes!A1" display="Informacoes" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B36" r:id="rId1" display="http://escritoriodeprojetos.com.br/planejar-o-gerenciamento-das-comunicacoes.aspx" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B37" r:id="rId2" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B38" r:id="rId3" tooltip="Plano de gerenciamento das comunicacoesvExemplo.docx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/122-plano-de-gerenciamento-das-comunicacoes-vexemplo" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B40" r:id="rId4" tooltip="Matriz das Comunicacoes versão Desenvolvimento de Sistemas.xlsx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/677-matriz-das-comunicacoes-vsistemas" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B41" r:id="rId5" tooltip="Registro das partes interessadas vExemplo-Plano de Comunicacao.xlsx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/123-registro-das-partes-interessadas-vexemplo-plano-de-comunicacao" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B43" r:id="rId6" display="http://escritoriodeprojetos.com.br/templates-de-gerenciamento-de-projetos.aspx" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B44" r:id="rId7" tooltip="Plano de gerenciamento das comunicacoes.docx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/82-plano-de-gerenciamento-das-comunicacoes" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B45" r:id="rId8" tooltip="Matriz das Comunicacoes versao 5W2H.xlsx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/80-matriz-das-comunicacoes" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B46" r:id="rId9" tooltip="Registro das partes interessadas versao Plano de Comunicacao.xlsx" display="http://escritoriodeprojetos.com.br/component/jdownloads/send/8-modelos/83-registro-das-partes-interessadas-v4-variaveis" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B39" r:id="rId10" tooltip="Plano de gerenciamento das comunicacoesvExemplo.docx" display="http://escritoriodeprojetos.com.br/exemplos-de-projetos-com-seus-templates.aspx/send/89-exemplos-de-projetos-com-seus-templates/122-plano-de-gerenciamento-das-comunicacoes-vexemplo" xr:uid="{AE4A6B28-87A5-9A44-90D2-B5A2ECA2AECD}"/>
+    <hyperlink ref="B39:J39" r:id="rId11" tooltip="Plano de gerenciamento das comunicacoesvExemplo.docx" display="Matriz das Comunicações usada no projeto Academia do Centro Olímpico" xr:uid="{DF8D0229-9AF2-334D-8EB4-C2C211273428}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId12"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LMatriz das comunicações&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F
 PMO Escritório de Projetos&amp;RPágina &amp;P de &amp;N
 http://escritoriodeprojetos.com.br</oddFooter>
   </headerFooter>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="3" customWidth="1"/>
-    <col min="5" max="7" width="15.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="85.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="15.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="85.19921875" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="14.19921875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="52.796875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="7.5" customHeight="1"/>
+    <row r="2" spans="2:17">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2844,7 +2892,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="45">
       <c r="B3" s="21" t="s">
         <v>65</v>
       </c>
@@ -2888,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="60">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -2930,7 +2978,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="75">
       <c r="B5" s="5">
         <f>B4+1</f>
         <v>2</v>
@@ -2973,7 +3021,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:17" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="7" customFormat="1" ht="50.25" customHeight="1">
       <c r="B6" s="5">
         <f t="shared" ref="B6:B30" si="0">B5+1</f>
         <v>3</v>
@@ -3016,7 +3064,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:17" s="7" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="7" customFormat="1" ht="97.5" customHeight="1">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3059,7 +3107,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:17" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="7" customFormat="1" ht="75">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3102,7 +3150,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:17" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" s="7" customFormat="1" ht="90">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3145,7 +3193,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:17" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="7" customFormat="1" ht="60">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3188,7 +3236,7 @@
       </c>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="60">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3231,7 +3279,7 @@
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="2:17" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" s="7" customFormat="1" ht="42">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3274,7 +3322,7 @@
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="2:17" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="7" customFormat="1" ht="56">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3317,7 +3365,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:17" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="7" customFormat="1" ht="90">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3348,7 +3396,7 @@
       <c r="N14" s="54"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:17" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="7" customFormat="1" ht="135">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3389,7 +3437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" s="7" customFormat="1" ht="30">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3432,7 +3480,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" s="7" customFormat="1" ht="75">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3475,7 +3523,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="7" customFormat="1">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3494,7 +3542,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="7" customFormat="1">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3513,7 +3561,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="7" customFormat="1">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3532,7 +3580,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3551,7 +3599,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3570,7 +3618,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3589,7 +3637,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3608,7 +3656,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3627,7 +3675,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3646,7 +3694,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3665,7 +3713,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3684,7 +3732,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3703,7 +3751,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3723,63 +3771,63 @@
       <c r="O30" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:O30"/>
+  <autoFilter ref="B3:O30" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I12 I4:I9 I18:I25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I12 I4:I9 I18:I25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>When</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" sqref="I10 I13:I17">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" sqref="I10 I13:I17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>When</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J12:J25 J4:J10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J12:J25 J4:J10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Where</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" tooltip="Desenvolver o termo de abertura do projeto"/>
-    <hyperlink ref="M5" r:id="rId2" tooltip="Identificar as partes interessadas"/>
-    <hyperlink ref="M6" r:id="rId3" tooltip="Definir o escopo"/>
-    <hyperlink ref="M7" r:id="rId4" tooltip="Desenvolver o plano de gerenciamento do projeto"/>
-    <hyperlink ref="M8" r:id="rId5" tooltip="Desenvolver o Cronograma"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="Identificar os riscos"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="Realizar o controle integrado de mudanças"/>
-    <hyperlink ref="M11" r:id="rId8" tooltip="Realizar o controle integrado de mudanças"/>
-    <hyperlink ref="M12" r:id="rId9" tooltip="Gerenciar as comunicações"/>
-    <hyperlink ref="M13" r:id="rId10" tooltip="Gerenciar o engajamento das partes interessadas"/>
-    <hyperlink ref="M17" r:id="rId11"/>
-    <hyperlink ref="M16" r:id="rId12" tooltip="Validar o escopo"/>
-    <hyperlink ref="K4" r:id="rId13" tooltip="Termo de Abertura do Projeto"/>
-    <hyperlink ref="K5" r:id="rId14" tooltip="Registro das partes interessadas"/>
-    <hyperlink ref="K6" r:id="rId15" tooltip="Declaração do escopo do projeto"/>
-    <hyperlink ref="K7" r:id="rId16" tooltip="Plano de Gerenciamento do Projeto"/>
-    <hyperlink ref="K8" r:id="rId17"/>
-    <hyperlink ref="K9" r:id="rId18"/>
-    <hyperlink ref="K10" r:id="rId19" tooltip="Solicitacao de mudanca.docx"/>
-    <hyperlink ref="K12" r:id="rId20"/>
-    <hyperlink ref="K15" r:id="rId21"/>
-    <hyperlink ref="K13" r:id="rId22"/>
-    <hyperlink ref="K16" r:id="rId23"/>
-    <hyperlink ref="K17" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25" tooltip="Registro das solicitacoes de mudancas.xlsx" display="Registro das solicitações de mudancas.xlsx"/>
-    <hyperlink ref="K14" r:id="rId26"/>
-    <hyperlink ref="C4" r:id="rId27" tooltip="Termo de Abertura do Projeto"/>
-    <hyperlink ref="C5" r:id="rId28" tooltip="Registro das partes interessadas"/>
-    <hyperlink ref="C6" r:id="rId29" tooltip="Declaração do escopo do projeto"/>
-    <hyperlink ref="C7" r:id="rId30" tooltip="Plano de Gerenciamento do Projeto"/>
-    <hyperlink ref="C8" r:id="rId31"/>
-    <hyperlink ref="C9" r:id="rId32"/>
-    <hyperlink ref="C10" r:id="rId33" tooltip="Solicitacao de mudanca.docx"/>
-    <hyperlink ref="C12" r:id="rId34"/>
-    <hyperlink ref="C15" r:id="rId35"/>
-    <hyperlink ref="C13" r:id="rId36"/>
-    <hyperlink ref="C16" r:id="rId37"/>
-    <hyperlink ref="C17" r:id="rId38"/>
-    <hyperlink ref="C11" r:id="rId39" tooltip="Registro das solicitacoes de mudancas.xlsx" display="Registro das solicitações de mudancas.xlsx"/>
-    <hyperlink ref="C14" r:id="rId40" display="Ata de Reunião"/>
+    <hyperlink ref="M4" r:id="rId1" tooltip="Desenvolver o termo de abertura do projeto" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M5" r:id="rId2" tooltip="Identificar as partes interessadas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="M6" r:id="rId3" tooltip="Definir o escopo" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="M7" r:id="rId4" tooltip="Desenvolver o plano de gerenciamento do projeto" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="M8" r:id="rId5" tooltip="Desenvolver o Cronograma" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="Identificar os riscos" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="Realizar o controle integrado de mudanças" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="M11" r:id="rId8" tooltip="Realizar o controle integrado de mudanças" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="M12" r:id="rId9" tooltip="Gerenciar as comunicações" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="M13" r:id="rId10" tooltip="Gerenciar o engajamento das partes interessadas" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="M17" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="M16" r:id="rId12" tooltip="Validar o escopo" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="K4" r:id="rId13" tooltip="Termo de Abertura do Projeto" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="K5" r:id="rId14" tooltip="Registro das partes interessadas" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K6" r:id="rId15" tooltip="Declaração do escopo do projeto" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="K7" r:id="rId16" tooltip="Plano de Gerenciamento do Projeto" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="K8" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K9" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K10" r:id="rId19" tooltip="Solicitacao de mudanca.docx" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="K12" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="K15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="K13" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="K16" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="K17" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K11" r:id="rId25" tooltip="Registro das solicitacoes de mudancas.xlsx" display="Registro das solicitações de mudancas.xlsx" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C4" r:id="rId27" tooltip="Termo de Abertura do Projeto" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C5" r:id="rId28" tooltip="Registro das partes interessadas" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C6" r:id="rId29" tooltip="Declaração do escopo do projeto" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C7" r:id="rId30" tooltip="Plano de Gerenciamento do Projeto" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="C8" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C9" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C10" r:id="rId33" tooltip="Solicitacao de mudanca.docx" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C12" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="C15" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C13" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="C16" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C17" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C11" r:id="rId39" tooltip="Registro das solicitacoes de mudancas.xlsx" display="Registro das solicitações de mudancas.xlsx" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C14" r:id="rId40" display="Ata de Reunião" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId41"/>
@@ -3793,41 +3841,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.59765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="37.59765625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" style="3"/>
+    <col min="15" max="15" width="20.796875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="100" t="s">
+    <row r="1" spans="2:13">
+      <c r="E1" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-    </row>
-    <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+    </row>
+    <row r="2" spans="2:13" ht="45">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3865,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="60">
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -3903,7 +3951,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="90">
       <c r="B4" s="11" t="s">
         <v>105</v>
       </c>
@@ -3923,7 +3971,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3943,7 +3991,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3961,7 +4009,7 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3979,7 +4027,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3997,7 +4045,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -4015,7 +4063,7 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -4033,7 +4081,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -4049,7 +4097,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
